--- a/presentation/3.1.6_distributed_data_deduplication/3.1.6_demo.xlsx
+++ b/presentation/3.1.6_distributed_data_deduplication/3.1.6_demo.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dliu/GitHub/ml_solutions_to_data_cleaning/presentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dliu/GitHub/ml_solutions_to_data_cleaning/presentation/3.1.6_distributed_data_deduplication/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A427AC6-5A46-954A-B8AF-6F164F53FA63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F0C371-BC27-044D-854F-F78158266404}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16140" xr2:uid="{7095B95E-4EA9-4844-94AA-83A6F608F2CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>A</t>
   </si>
@@ -376,6 +376,96 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -384,96 +474,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -794,10 +794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675951BF-172B-3143-87AF-F5BDD94A7633}">
-  <dimension ref="B2:N21"/>
+  <dimension ref="B2:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -816,323 +816,475 @@
       <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="8" t="s">
+      <c r="J2" s="35"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="F3" s="10" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="F3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="8">
         <v>2</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="15" t="s">
+      <c r="L3" s="4"/>
+      <c r="M3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="15"/>
+      <c r="N3" s="12"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="F4" s="10" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="F4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="8">
         <v>4</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="15" t="s">
+      <c r="L4" s="4"/>
+      <c r="M4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="15"/>
+      <c r="N4" s="12"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="F5" s="16" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="F5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="14">
         <v>4</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="15" t="s">
+      <c r="L5" s="4"/>
+      <c r="M5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="15"/>
+      <c r="N5" s="12"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="I6" s="12" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="I6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="15" t="s">
+      <c r="L6" s="4"/>
+      <c r="M6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="15"/>
+      <c r="N6" s="12"/>
     </row>
     <row r="7" spans="2:14" ht="22" x14ac:dyDescent="0.25">
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="15" t="s">
+      <c r="L7" s="4"/>
+      <c r="M7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="18" t="s">
+      <c r="N7" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="J8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="21" t="s">
+      <c r="K8" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="15" t="s">
+      <c r="L8" s="4"/>
+      <c r="M8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N8" s="15"/>
+      <c r="N8" s="12"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="15" t="s">
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="15"/>
+      <c r="N9" s="12"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="15" t="s">
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="N10" s="15"/>
+      <c r="N10" s="12"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="15" t="s">
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="N11" s="22" t="s">
+      <c r="N11" s="19" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="15" t="s">
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="N12" s="15"/>
+      <c r="N12" s="12"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="20" t="s">
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="N13" s="20"/>
+      <c r="N13" s="17"/>
     </row>
     <row r="15" spans="2:14" ht="26" x14ac:dyDescent="0.3">
-      <c r="B15" s="36">
+      <c r="B15" s="33">
         <v>1</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="33">
         <v>2</v>
       </c>
-      <c r="D15" s="36">
+      <c r="D15" s="33">
         <v>3</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="33">
         <v>4</v>
       </c>
-      <c r="F15" s="36">
+      <c r="F15" s="33">
         <v>5</v>
       </c>
-      <c r="G15" s="36">
+      <c r="G15" s="33">
         <v>6</v>
       </c>
-      <c r="H15" s="35" t="s">
+      <c r="H15" s="32" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="16" spans="2:14" ht="26" x14ac:dyDescent="0.3">
-      <c r="B16" s="23">
+      <c r="B16" s="20">
         <v>1</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="21">
         <v>2</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="22">
         <v>3</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="23">
         <v>4</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="22">
         <v>5</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="20">
         <v>6</v>
       </c>
-      <c r="H16" s="35">
+      <c r="H16" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="26" x14ac:dyDescent="0.3">
-      <c r="B17" s="27"/>
-      <c r="C17" s="28">
+      <c r="B17" s="24"/>
+      <c r="C17" s="25">
         <v>7</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D17" s="25">
         <v>8</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="26">
         <v>9</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="25">
         <v>10</v>
       </c>
-      <c r="G17" s="30">
+      <c r="G17" s="27">
         <v>11</v>
       </c>
-      <c r="H17" s="35">
+      <c r="H17" s="32">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="26" x14ac:dyDescent="0.3">
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="31">
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="28">
         <v>12</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="29">
         <v>13</v>
       </c>
-      <c r="F18" s="31">
+      <c r="F18" s="28">
         <v>14</v>
       </c>
-      <c r="G18" s="33">
+      <c r="G18" s="30">
         <v>15</v>
       </c>
-      <c r="H18" s="35">
+      <c r="H18" s="32">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="26" x14ac:dyDescent="0.3">
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="29">
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="26">
         <v>16</v>
       </c>
-      <c r="F19" s="32">
+      <c r="F19" s="29">
         <v>17</v>
       </c>
-      <c r="G19" s="34">
+      <c r="G19" s="31">
         <v>18</v>
       </c>
-      <c r="H19" s="35">
+      <c r="H19" s="32">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="26" x14ac:dyDescent="0.3">
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="31">
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="28">
         <v>19</v>
       </c>
-      <c r="G20" s="33">
+      <c r="G20" s="30">
         <v>20</v>
       </c>
-      <c r="H20" s="35">
+      <c r="H20" s="32">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="26" x14ac:dyDescent="0.3">
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="23">
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="20">
         <v>21</v>
       </c>
-      <c r="H21" s="35">
+      <c r="H21" s="32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="26" x14ac:dyDescent="0.3">
+      <c r="B23" s="33">
+        <v>1</v>
+      </c>
+      <c r="C23" s="33">
+        <v>2</v>
+      </c>
+      <c r="D23" s="33">
+        <v>3</v>
+      </c>
+      <c r="E23" s="33">
+        <v>4</v>
+      </c>
+      <c r="F23" s="33">
+        <v>5</v>
+      </c>
+      <c r="G23" s="33">
+        <v>6</v>
+      </c>
+      <c r="H23" s="32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="26" x14ac:dyDescent="0.3">
+      <c r="B24" s="20">
+        <f>B16-1</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="22">
+        <f t="shared" ref="C24:G24" si="0">C16-1</f>
+        <v>1</v>
+      </c>
+      <c r="D24" s="23">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E24" s="22">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F24" s="21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G24" s="20">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H24" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="26" x14ac:dyDescent="0.3">
+      <c r="B25" s="24"/>
+      <c r="C25" s="22">
+        <f t="shared" ref="C25:G25" si="1">C17-1</f>
+        <v>6</v>
+      </c>
+      <c r="D25" s="23">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E25" s="22">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F25" s="21">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G25" s="22">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H25" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="26" x14ac:dyDescent="0.3">
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="26">
+        <f t="shared" ref="D26:G26" si="2">D18-1</f>
+        <v>11</v>
+      </c>
+      <c r="E26" s="23">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="F26" s="26">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="G26" s="23">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="H26" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="26" x14ac:dyDescent="0.3">
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="28">
+        <f t="shared" ref="E27:G27" si="3">E19-1</f>
+        <v>15</v>
+      </c>
+      <c r="F27" s="21">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="G27" s="30">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="H27" s="32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="26" x14ac:dyDescent="0.3">
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="21">
+        <f t="shared" ref="F28:G28" si="4">F20-1</f>
+        <v>18</v>
+      </c>
+      <c r="G28" s="21">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="H28" s="32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="26" x14ac:dyDescent="0.3">
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="20">
+        <f>G21-1</f>
+        <v>20</v>
+      </c>
+      <c r="H29" s="32">
         <v>6</v>
       </c>
     </row>
